--- a/ig/sd-intégration-jdv-R5/StructureDefinition-eclaire-site-contact-name.xlsx
+++ b/ig/sd-intégration-jdv-R5/StructureDefinition-eclaire-site-contact-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T13:01:29+00:00</t>
+    <t>2023-09-01T13:23:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-intégration-jdv-R5/StructureDefinition-eclaire-site-contact-name.xlsx
+++ b/ig/sd-intégration-jdv-R5/StructureDefinition-eclaire-site-contact-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T13:23:16+00:00</t>
+    <t>2023-09-01T13:38:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
